--- a/API 명세서.xlsx
+++ b/API 명세서.xlsx
@@ -1126,6 +1126,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,7 +1139,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1144,6 +1147,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1162,28 +1168,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,23 +1210,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,33 +1255,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1296,9 +1299,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,569 +1582,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF109" sqref="AF109"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="3"/>
-      <c r="N8" s="45"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="47" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:22" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="M31" s="32" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="M31" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="34"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="37"/>
     </row>
     <row r="32" spans="2:22" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="M32" s="35" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="M32" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="37"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="40"/>
     </row>
     <row r="33" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="M33" s="44" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="M33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="10"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="10"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="14"/>
     </row>
     <row r="37" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="19"/>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="24" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="28" t="s">
+      <c r="H37" s="31"/>
+      <c r="I37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="33"/>
       <c r="M37" s="18" t="s">
         <v>4</v>
       </c>
       <c r="N37" s="19"/>
-      <c r="O37" s="26" t="s">
+      <c r="O37" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="24" t="s">
+      <c r="P37" s="28"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="28" t="s">
+      <c r="S37" s="31"/>
+      <c r="T37" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="29"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="33"/>
     </row>
     <row r="38" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
@@ -2176,331 +2176,331 @@
       <c r="B39" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="31"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="27"/>
       <c r="M39" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="31"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="27"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="15"/>
-      <c r="M40" s="13" t="s">
+      <c r="K40" s="17"/>
+      <c r="M40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14" t="s">
+      <c r="N40" s="16"/>
+      <c r="O40" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14" t="s">
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V40" s="15"/>
+      <c r="V40" s="17"/>
     </row>
     <row r="41" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-      <c r="M41" s="4" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="M41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="17"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="25"/>
     </row>
     <row r="42" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="M42" s="13" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+      <c r="M42" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14" t="s">
+      <c r="N42" s="16"/>
+      <c r="O42" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14" t="s">
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14" t="s">
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V42" s="15"/>
+      <c r="V42" s="17"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14" t="s">
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="M43" s="13" t="s">
+      <c r="K43" s="17"/>
+      <c r="M43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14" t="s">
+      <c r="N43" s="16"/>
+      <c r="O43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14" t="s">
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14" t="s">
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V43" s="15"/>
+      <c r="V43" s="17"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14" t="s">
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="M44" s="13" t="s">
+      <c r="K44" s="17"/>
+      <c r="M44" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14" t="s">
+      <c r="N44" s="16"/>
+      <c r="O44" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14" t="s">
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14" t="s">
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V44" s="15"/>
+      <c r="V44" s="17"/>
     </row>
     <row r="45" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14" t="s">
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="M45" s="4" t="s">
+      <c r="K45" s="17"/>
+      <c r="M45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="17"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="25"/>
     </row>
     <row r="46" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
-      <c r="M46" s="44" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="M46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="10"/>
     </row>
     <row r="47" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="10"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="9"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="10"/>
     </row>
     <row r="49" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="9"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="14"/>
     </row>
     <row r="50" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
       <c r="M50" s="18" t="s">
         <v>13</v>
       </c>
@@ -2553,592 +2553,592 @@
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="23"/>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14" t="s">
+      <c r="N52" s="16"/>
+      <c r="O52" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14" t="s">
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V52" s="15"/>
+      <c r="V52" s="17"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14" t="s">
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K53" s="15"/>
-      <c r="M53" s="13" t="s">
+      <c r="K53" s="17"/>
+      <c r="M53" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14" t="s">
+      <c r="N53" s="16"/>
+      <c r="O53" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14" t="s">
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V53" s="15"/>
+      <c r="V53" s="17"/>
     </row>
     <row r="54" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14" t="s">
+      <c r="C54" s="16"/>
+      <c r="D54" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K54" s="15"/>
-      <c r="M54" s="4" t="s">
+      <c r="K54" s="17"/>
+      <c r="M54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="7"/>
     </row>
     <row r="55" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="6"/>
-      <c r="M55" s="13" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="7"/>
+      <c r="M55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14" t="s">
+      <c r="N55" s="16"/>
+      <c r="O55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14" t="s">
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14" t="s">
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V55" s="15"/>
+      <c r="V55" s="17"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14" t="s">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14" t="s">
+      <c r="E56" s="16"/>
+      <c r="F56" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14" t="s">
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K56" s="15"/>
-      <c r="M56" s="13" t="s">
+      <c r="K56" s="17"/>
+      <c r="M56" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14" t="s">
+      <c r="N56" s="16"/>
+      <c r="O56" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14" t="s">
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14" t="s">
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V56" s="15"/>
+      <c r="V56" s="17"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
+      <c r="E57" s="16"/>
+      <c r="F57" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14" t="s">
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="15"/>
-      <c r="M57" s="13" t="s">
+      <c r="K57" s="17"/>
+      <c r="M57" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14" t="s">
+      <c r="N57" s="16"/>
+      <c r="O57" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14" t="s">
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14" t="s">
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V57" s="15"/>
+      <c r="V57" s="17"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14" t="s">
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14" t="s">
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="15"/>
-      <c r="M58" s="13" t="s">
+      <c r="K58" s="17"/>
+      <c r="M58" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14" t="s">
+      <c r="N58" s="16"/>
+      <c r="O58" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14" t="s">
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14" t="s">
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V58" s="15"/>
+      <c r="V58" s="17"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14" t="s">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14" t="s">
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14" t="s">
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K59" s="15"/>
-      <c r="M59" s="13" t="s">
+      <c r="K59" s="17"/>
+      <c r="M59" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14" t="s">
+      <c r="N59" s="16"/>
+      <c r="O59" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14" t="s">
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14" t="s">
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V59" s="15"/>
+      <c r="V59" s="17"/>
     </row>
     <row r="60" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14" t="s">
+      <c r="C60" s="16"/>
+      <c r="D60" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14" t="s">
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14" t="s">
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="M60" s="4" t="s">
+      <c r="K60" s="17"/>
+      <c r="M60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="7"/>
     </row>
     <row r="61" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="6"/>
-      <c r="M61" s="44" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="M61" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="10"/>
     </row>
     <row r="62" spans="2:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="9"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="10"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="10"/>
     </row>
     <row r="63" spans="2:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="10"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="10"/>
     </row>
     <row r="64" spans="2:22" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="9"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="12"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="10"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="14"/>
     </row>
     <row r="65" spans="2:22" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14"/>
     </row>
     <row r="66" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:22" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="34"/>
-      <c r="M68" s="32" t="s">
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="37"/>
+      <c r="M68" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="34"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="37"/>
     </row>
     <row r="69" spans="2:22" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="37"/>
-      <c r="M69" s="35" t="s">
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="40"/>
+      <c r="M69" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="37"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="40"/>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="9"/>
-      <c r="M70" s="44" t="s">
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="10"/>
+      <c r="M70" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="10"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="9"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="10"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="9"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="10"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="10"/>
     </row>
     <row r="73" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="12"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="14"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="14"/>
     </row>
     <row r="74" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="19"/>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="24" t="s">
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="28" t="s">
+      <c r="H74" s="31"/>
+      <c r="I74" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J74" s="28"/>
-      <c r="K74" s="29"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="33"/>
       <c r="M74" s="18" t="s">
         <v>4</v>
       </c>
       <c r="N74" s="19"/>
-      <c r="O74" s="26" t="s">
+      <c r="O74" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="24" t="s">
+      <c r="P74" s="28"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S74" s="25"/>
-      <c r="T74" s="28" t="s">
+      <c r="S74" s="31"/>
+      <c r="T74" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="U74" s="28"/>
-      <c r="V74" s="29"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="33"/>
     </row>
     <row r="75" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
@@ -3170,281 +3170,281 @@
       <c r="B76" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="31"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="27"/>
       <c r="M76" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-      <c r="V76" s="31"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="27"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="16"/>
+      <c r="D77" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14" t="s">
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K77" s="15"/>
-      <c r="M77" s="13" t="s">
+      <c r="K77" s="17"/>
+      <c r="M77" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14" t="s">
+      <c r="N77" s="16"/>
+      <c r="O77" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14" t="s">
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V77" s="15"/>
+      <c r="V77" s="17"/>
     </row>
     <row r="78" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="17"/>
-      <c r="M78" s="4" t="s">
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="25"/>
+      <c r="M78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="17"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="25"/>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14" t="s">
+      <c r="C79" s="16"/>
+      <c r="D79" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14" t="s">
+      <c r="E79" s="16"/>
+      <c r="F79" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14" t="s">
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K79" s="15"/>
-      <c r="M79" s="13" t="s">
+      <c r="K79" s="17"/>
+      <c r="M79" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14" t="s">
+      <c r="N79" s="16"/>
+      <c r="O79" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14" t="s">
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="14" t="s">
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V79" s="15"/>
+      <c r="V79" s="17"/>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14" t="s">
+      <c r="C80" s="16"/>
+      <c r="D80" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14" t="s">
+      <c r="E80" s="16"/>
+      <c r="F80" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14" t="s">
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="15"/>
-      <c r="M80" s="13" t="s">
+      <c r="K80" s="17"/>
+      <c r="M80" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14" t="s">
+      <c r="N80" s="16"/>
+      <c r="O80" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="61" t="s">
+      <c r="P80" s="16"/>
+      <c r="Q80" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="14" t="s">
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V80" s="15"/>
+      <c r="V80" s="17"/>
     </row>
     <row r="81" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="17"/>
-      <c r="M81" s="4" t="s">
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="25"/>
+      <c r="M81" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="17"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="25"/>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="9"/>
-      <c r="M82" s="44" t="s">
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="10"/>
+      <c r="M82" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="10"/>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="9"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="10"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="10"/>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="9"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="9"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="10"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="10"/>
     </row>
     <row r="85" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="12"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="14"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="14"/>
     </row>
     <row r="86" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="18" t="s">
@@ -3499,513 +3499,513 @@
       <c r="V87" s="23"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14" t="s">
+      <c r="C88" s="16"/>
+      <c r="D88" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14" t="s">
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="M88" s="13" t="s">
+      <c r="K88" s="17"/>
+      <c r="M88" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14" t="s">
+      <c r="N88" s="16"/>
+      <c r="O88" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="14"/>
-      <c r="U88" s="14" t="s">
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V88" s="15"/>
+      <c r="V88" s="17"/>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14" t="s">
+      <c r="C89" s="16"/>
+      <c r="D89" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14" t="s">
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="15"/>
-      <c r="M89" s="13" t="s">
+      <c r="K89" s="17"/>
+      <c r="M89" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14" t="s">
+      <c r="N89" s="16"/>
+      <c r="O89" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="14"/>
-      <c r="U89" s="14" t="s">
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V89" s="15"/>
+      <c r="V89" s="17"/>
     </row>
     <row r="90" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="6"/>
-      <c r="M90" s="4" t="s">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="7"/>
+      <c r="M90" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="7"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14" t="s">
+      <c r="C91" s="16"/>
+      <c r="D91" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14" t="s">
+      <c r="E91" s="16"/>
+      <c r="F91" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14" t="s">
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K91" s="15"/>
-      <c r="M91" s="13" t="s">
+      <c r="K91" s="17"/>
+      <c r="M91" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14" t="s">
+      <c r="N91" s="16"/>
+      <c r="O91" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14" t="s">
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14" t="s">
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V91" s="15"/>
+      <c r="V91" s="17"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14" t="s">
+      <c r="C92" s="16"/>
+      <c r="D92" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14" t="s">
+      <c r="E92" s="16"/>
+      <c r="F92" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14" t="s">
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K92" s="15"/>
-      <c r="M92" s="13" t="s">
+      <c r="K92" s="17"/>
+      <c r="M92" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14" t="s">
+      <c r="N92" s="16"/>
+      <c r="O92" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14" t="s">
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="14"/>
-      <c r="U92" s="14" t="s">
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V92" s="15"/>
+      <c r="V92" s="17"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14" t="s">
+      <c r="C93" s="16"/>
+      <c r="D93" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14" t="s">
+      <c r="E93" s="16"/>
+      <c r="F93" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14" t="s">
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K93" s="15"/>
-      <c r="M93" s="13" t="s">
+      <c r="K93" s="17"/>
+      <c r="M93" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14" t="s">
+      <c r="N93" s="16"/>
+      <c r="O93" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14" t="s">
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="14" t="s">
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V93" s="15"/>
+      <c r="V93" s="17"/>
     </row>
     <row r="94" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="6"/>
-      <c r="M94" s="4" t="s">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="7"/>
+      <c r="M94" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="7"/>
     </row>
     <row r="95" spans="2:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="9"/>
-      <c r="M95" s="44" t="s">
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="10"/>
+      <c r="M95" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="10"/>
     </row>
     <row r="96" spans="2:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="9"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="9"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="10"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="10"/>
     </row>
     <row r="97" spans="2:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="9"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="9"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="10"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="10"/>
     </row>
     <row r="98" spans="2:22" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="12"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
-      <c r="U98" s="11"/>
-      <c r="V98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="14"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="14"/>
     </row>
     <row r="100" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="101" spans="2:22" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="34"/>
-      <c r="M101" s="32" t="s">
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="37"/>
+      <c r="M101" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N101" s="33"/>
-      <c r="O101" s="33"/>
-      <c r="P101" s="33"/>
-      <c r="Q101" s="33"/>
-      <c r="R101" s="33"/>
-      <c r="S101" s="33"/>
-      <c r="T101" s="33"/>
-      <c r="U101" s="33"/>
-      <c r="V101" s="34"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="37"/>
     </row>
     <row r="102" spans="2:22" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="37"/>
-      <c r="M102" s="35" t="s">
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="40"/>
+      <c r="M102" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
-      <c r="S102" s="36"/>
-      <c r="T102" s="36"/>
-      <c r="U102" s="36"/>
-      <c r="V102" s="37"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39"/>
+      <c r="T102" s="39"/>
+      <c r="U102" s="39"/>
+      <c r="V102" s="40"/>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="9"/>
-      <c r="M103" s="44" t="s">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="10"/>
+      <c r="M103" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="10"/>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="9"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="9"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="10"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="10"/>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="9"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="9"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="10"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="10"/>
     </row>
     <row r="106" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="12"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11"/>
-      <c r="V106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="14"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13"/>
+      <c r="V106" s="14"/>
     </row>
     <row r="107" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="19"/>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="24" t="s">
+      <c r="E107" s="28"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="28" t="s">
+      <c r="H107" s="31"/>
+      <c r="I107" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J107" s="28"/>
-      <c r="K107" s="29"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="33"/>
       <c r="M107" s="18" t="s">
         <v>4</v>
       </c>
       <c r="N107" s="19"/>
-      <c r="O107" s="26" t="s">
+      <c r="O107" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="27"/>
-      <c r="R107" s="24" t="s">
+      <c r="P107" s="28"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S107" s="25"/>
-      <c r="T107" s="28" t="s">
+      <c r="S107" s="31"/>
+      <c r="T107" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="U107" s="28"/>
-      <c r="V107" s="29"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="33"/>
     </row>
     <row r="108" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="18" t="s">
@@ -4037,379 +4037,379 @@
       <c r="B109" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="31"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="27"/>
       <c r="M109" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N109" s="30"/>
-      <c r="O109" s="30"/>
-      <c r="P109" s="30"/>
-      <c r="Q109" s="30"/>
-      <c r="R109" s="30"/>
-      <c r="S109" s="30"/>
-      <c r="T109" s="30"/>
-      <c r="U109" s="30"/>
-      <c r="V109" s="31"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="V109" s="27"/>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14" t="s">
+      <c r="C110" s="16"/>
+      <c r="D110" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14" t="s">
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K110" s="15"/>
-      <c r="M110" s="13" t="s">
+      <c r="K110" s="17"/>
+      <c r="M110" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14" t="s">
+      <c r="N110" s="16"/>
+      <c r="O110" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="14"/>
-      <c r="S110" s="14"/>
-      <c r="T110" s="14"/>
-      <c r="U110" s="14" t="s">
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V110" s="15"/>
+      <c r="V110" s="17"/>
     </row>
     <row r="111" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="17"/>
-      <c r="M111" s="4" t="s">
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="25"/>
+      <c r="M111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N111" s="16"/>
-      <c r="O111" s="16"/>
-      <c r="P111" s="16"/>
-      <c r="Q111" s="16"/>
-      <c r="R111" s="16"/>
-      <c r="S111" s="16"/>
-      <c r="T111" s="16"/>
-      <c r="U111" s="16"/>
-      <c r="V111" s="17"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="25"/>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14" t="s">
+      <c r="C112" s="16"/>
+      <c r="D112" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14" t="s">
+      <c r="E112" s="16"/>
+      <c r="F112" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14" t="s">
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K112" s="15"/>
-      <c r="M112" s="13" t="s">
+      <c r="K112" s="17"/>
+      <c r="M112" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14" t="s">
+      <c r="N112" s="16"/>
+      <c r="O112" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14" t="s">
+      <c r="P112" s="16"/>
+      <c r="Q112" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="14"/>
-      <c r="U112" s="14" t="s">
+      <c r="R112" s="16"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="16"/>
+      <c r="U112" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V112" s="15"/>
+      <c r="V112" s="17"/>
     </row>
     <row r="113" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14" t="s">
+      <c r="C113" s="16"/>
+      <c r="D113" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="14"/>
-      <c r="F113" s="61" t="s">
+      <c r="E113" s="16"/>
+      <c r="F113" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14" t="s">
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K113" s="15"/>
-      <c r="M113" s="13" t="s">
+      <c r="K113" s="17"/>
+      <c r="M113" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14" t="s">
+      <c r="N113" s="16"/>
+      <c r="O113" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14" t="s">
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="R113" s="14"/>
-      <c r="S113" s="14"/>
-      <c r="T113" s="14"/>
-      <c r="U113" s="14" t="s">
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V113" s="15"/>
+      <c r="V113" s="17"/>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14" t="s">
+      <c r="C114" s="16"/>
+      <c r="D114" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14" t="s">
+      <c r="E114" s="16"/>
+      <c r="F114" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14" t="s">
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K114" s="15"/>
-      <c r="M114" s="13" t="s">
+      <c r="K114" s="17"/>
+      <c r="M114" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14" t="s">
+      <c r="N114" s="16"/>
+      <c r="O114" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14" t="s">
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="14"/>
-      <c r="U114" s="14" t="s">
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V114" s="15"/>
+      <c r="V114" s="17"/>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="15"/>
-      <c r="M115" s="13" t="s">
+      <c r="B115" s="15"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="17"/>
+      <c r="M115" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="N115" s="14"/>
-      <c r="O115" s="14" t="s">
+      <c r="N115" s="16"/>
+      <c r="O115" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14" t="s">
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R115" s="14"/>
-      <c r="S115" s="14"/>
-      <c r="T115" s="14"/>
-      <c r="U115" s="14" t="s">
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V115" s="15"/>
+      <c r="V115" s="17"/>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="15"/>
-      <c r="M116" s="13" t="s">
+      <c r="B116" s="15"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="17"/>
+      <c r="M116" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N116" s="14"/>
-      <c r="O116" s="14" t="s">
+      <c r="N116" s="16"/>
+      <c r="O116" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14" t="s">
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="R116" s="14"/>
-      <c r="S116" s="14"/>
-      <c r="T116" s="14"/>
-      <c r="U116" s="14" t="s">
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V116" s="15"/>
+      <c r="V116" s="17"/>
     </row>
     <row r="117" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="17"/>
-      <c r="M117" s="4" t="s">
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="25"/>
+      <c r="M117" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="16"/>
-      <c r="U117" s="16"/>
-      <c r="V117" s="17"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+      <c r="R117" s="24"/>
+      <c r="S117" s="24"/>
+      <c r="T117" s="24"/>
+      <c r="U117" s="24"/>
+      <c r="V117" s="25"/>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="9"/>
-      <c r="M118" s="44" t="s">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="10"/>
+      <c r="M118" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="10"/>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="9"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="9"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="10"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="10"/>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B120" s="7"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="9"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="9"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="10"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="10"/>
     </row>
     <row r="121" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="10"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="12"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11"/>
-      <c r="U121" s="11"/>
-      <c r="V121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="14"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13"/>
+      <c r="U121" s="13"/>
+      <c r="V121" s="14"/>
     </row>
     <row r="122" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B122" s="18" t="s">
@@ -4464,330 +4464,330 @@
       <c r="V123" s="23"/>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14" t="s">
+      <c r="C124" s="16"/>
+      <c r="D124" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14" t="s">
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K124" s="15"/>
-      <c r="M124" s="13" t="s">
+      <c r="K124" s="17"/>
+      <c r="M124" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N124" s="14"/>
-      <c r="O124" s="14" t="s">
+      <c r="N124" s="16"/>
+      <c r="O124" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
-      <c r="R124" s="14"/>
-      <c r="S124" s="14"/>
-      <c r="T124" s="14"/>
-      <c r="U124" s="14" t="s">
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+      <c r="U124" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V124" s="15"/>
+      <c r="V124" s="17"/>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14" t="s">
+      <c r="C125" s="16"/>
+      <c r="D125" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14" t="s">
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K125" s="15"/>
-      <c r="M125" s="13" t="s">
+      <c r="K125" s="17"/>
+      <c r="M125" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N125" s="14"/>
-      <c r="O125" s="14" t="s">
+      <c r="N125" s="16"/>
+      <c r="O125" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P125" s="14"/>
-      <c r="Q125" s="14"/>
-      <c r="R125" s="14"/>
-      <c r="S125" s="14"/>
-      <c r="T125" s="14"/>
-      <c r="U125" s="14" t="s">
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V125" s="15"/>
+      <c r="V125" s="17"/>
     </row>
     <row r="126" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="6"/>
-      <c r="M126" s="4" t="s">
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="7"/>
+      <c r="M126" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5"/>
-      <c r="V126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+      <c r="U126" s="6"/>
+      <c r="V126" s="7"/>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14" t="s">
+      <c r="C127" s="16"/>
+      <c r="D127" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14" t="s">
+      <c r="E127" s="16"/>
+      <c r="F127" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14" t="s">
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K127" s="15"/>
-      <c r="M127" s="13" t="s">
+      <c r="K127" s="17"/>
+      <c r="M127" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N127" s="14"/>
-      <c r="O127" s="14" t="s">
+      <c r="N127" s="16"/>
+      <c r="O127" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P127" s="14"/>
-      <c r="Q127" s="14" t="s">
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R127" s="14"/>
-      <c r="S127" s="14"/>
-      <c r="T127" s="14"/>
-      <c r="U127" s="14" t="s">
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V127" s="15"/>
+      <c r="V127" s="17"/>
     </row>
     <row r="128" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14" t="s">
+      <c r="C128" s="16"/>
+      <c r="D128" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14" t="s">
+      <c r="E128" s="16"/>
+      <c r="F128" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14" t="s">
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K128" s="15"/>
-      <c r="M128" s="13" t="s">
+      <c r="K128" s="17"/>
+      <c r="M128" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N128" s="14"/>
-      <c r="O128" s="14" t="s">
+      <c r="N128" s="16"/>
+      <c r="O128" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P128" s="14"/>
-      <c r="Q128" s="14" t="s">
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R128" s="14"/>
-      <c r="S128" s="14"/>
-      <c r="T128" s="14"/>
-      <c r="U128" s="14" t="s">
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V128" s="15"/>
+      <c r="V128" s="17"/>
     </row>
     <row r="129" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14" t="s">
+      <c r="C129" s="16"/>
+      <c r="D129" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14" t="s">
+      <c r="E129" s="16"/>
+      <c r="F129" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14" t="s">
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K129" s="15"/>
-      <c r="M129" s="13" t="s">
+      <c r="K129" s="17"/>
+      <c r="M129" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14" t="s">
+      <c r="N129" s="16"/>
+      <c r="O129" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P129" s="14"/>
-      <c r="Q129" s="14" t="s">
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R129" s="14"/>
-      <c r="S129" s="14"/>
-      <c r="T129" s="14"/>
-      <c r="U129" s="14" t="s">
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V129" s="15"/>
+      <c r="V129" s="17"/>
     </row>
     <row r="130" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="6"/>
-      <c r="M130" s="4" t="s">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="7"/>
+      <c r="M130" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+      <c r="V130" s="7"/>
     </row>
     <row r="131" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B131" s="44" t="s">
+      <c r="B131" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="9"/>
-      <c r="M131" s="44" t="s">
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="10"/>
+      <c r="M131" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="10"/>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B132" s="7"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="9"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="9"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="10"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="10"/>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B133" s="7"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="9"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="8"/>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="9"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="10"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="9"/>
+      <c r="V133" s="10"/>
     </row>
     <row r="134" spans="2:22" ht="189.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="12"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="11"/>
-      <c r="P134" s="11"/>
-      <c r="Q134" s="11"/>
-      <c r="R134" s="11"/>
-      <c r="S134" s="11"/>
-      <c r="T134" s="11"/>
-      <c r="U134" s="11"/>
-      <c r="V134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="14"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="14"/>
     </row>
     <row r="135" spans="2:22" ht="189.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="136" spans="2:22" ht="189.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4798,56 +4798,264 @@
     <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="332">
-    <mergeCell ref="M130:V130"/>
-    <mergeCell ref="M131:V134"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="Q128:T128"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="Q129:T129"/>
-    <mergeCell ref="U129:V129"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:T125"/>
-    <mergeCell ref="U125:V125"/>
-    <mergeCell ref="M126:V126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="Q127:T127"/>
-    <mergeCell ref="U127:V127"/>
-    <mergeCell ref="M118:V121"/>
-    <mergeCell ref="M122:V122"/>
-    <mergeCell ref="M123:V123"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="O124:T124"/>
-    <mergeCell ref="U124:V124"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="Q114:T114"/>
-    <mergeCell ref="U114:V114"/>
-    <mergeCell ref="M117:V117"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="O115:P115"/>
-    <mergeCell ref="Q115:T115"/>
-    <mergeCell ref="U115:V115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:T116"/>
-    <mergeCell ref="U116:V116"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="O112:P112"/>
-    <mergeCell ref="Q112:T112"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="Q113:T113"/>
-    <mergeCell ref="U113:V113"/>
-    <mergeCell ref="M109:V109"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="O110:T110"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="M111:V111"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B62:K65"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:K50"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="B4:K28"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="M38:V38"/>
+    <mergeCell ref="M31:V31"/>
+    <mergeCell ref="M32:V32"/>
+    <mergeCell ref="M33:V36"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M41:V41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="M39:V39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="M45:V45"/>
+    <mergeCell ref="M46:V49"/>
+    <mergeCell ref="M50:V50"/>
+    <mergeCell ref="M51:V51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="M54:V54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="M60:V60"/>
+    <mergeCell ref="M61:V64"/>
+    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="B70:K73"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B111:K111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B81:K81"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:K107"/>
+    <mergeCell ref="B108:K108"/>
+    <mergeCell ref="B109:K109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="M68:V68"/>
+    <mergeCell ref="M69:V69"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B82:K85"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="B87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="M75:V75"/>
+    <mergeCell ref="M76:V76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="M70:V73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:T80"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="M81:V81"/>
+    <mergeCell ref="M78:V78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="O89:T89"/>
+    <mergeCell ref="U89:V89"/>
+    <mergeCell ref="M90:V90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="M82:V85"/>
+    <mergeCell ref="M86:V86"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="O88:T88"/>
+    <mergeCell ref="U88:V88"/>
+    <mergeCell ref="M94:V94"/>
+    <mergeCell ref="M95:V98"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="B103:K106"/>
+    <mergeCell ref="M101:V101"/>
+    <mergeCell ref="M102:V102"/>
+    <mergeCell ref="M103:V106"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="Q92:T92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="Q93:T93"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="B94:K94"/>
+    <mergeCell ref="B95:K98"/>
+    <mergeCell ref="B117:K117"/>
+    <mergeCell ref="B118:K121"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B123:K123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="J127:K127"/>
     <mergeCell ref="M107:N107"/>
     <mergeCell ref="O107:Q107"/>
     <mergeCell ref="R107:S107"/>
@@ -4872,264 +5080,56 @@
     <mergeCell ref="F128:I128"/>
     <mergeCell ref="J128:K128"/>
     <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="B126:K126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="B117:K117"/>
-    <mergeCell ref="B118:K121"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B123:K123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="M94:V94"/>
-    <mergeCell ref="M95:V98"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="B103:K106"/>
-    <mergeCell ref="M101:V101"/>
-    <mergeCell ref="M102:V102"/>
-    <mergeCell ref="M103:V106"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="Q92:T92"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="Q93:T93"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="O89:T89"/>
-    <mergeCell ref="U89:V89"/>
-    <mergeCell ref="M90:V90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="Q91:T91"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="M82:V85"/>
-    <mergeCell ref="M86:V86"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="O88:T88"/>
-    <mergeCell ref="U88:V88"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="Q80:T80"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="M81:V81"/>
-    <mergeCell ref="M78:V78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="M75:V75"/>
-    <mergeCell ref="M76:V76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="M70:V73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="B94:K94"/>
-    <mergeCell ref="B95:K98"/>
-    <mergeCell ref="M68:V68"/>
-    <mergeCell ref="M69:V69"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B82:K85"/>
-    <mergeCell ref="B86:K86"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="B81:K81"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:K107"/>
-    <mergeCell ref="B108:K108"/>
-    <mergeCell ref="B109:K109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="B111:K111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="B78:K78"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="M60:V60"/>
-    <mergeCell ref="M61:V64"/>
-    <mergeCell ref="B68:K68"/>
-    <mergeCell ref="B69:K69"/>
-    <mergeCell ref="B70:K73"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:T58"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="M54:V54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="M45:V45"/>
-    <mergeCell ref="M46:V49"/>
-    <mergeCell ref="M50:V50"/>
-    <mergeCell ref="M51:V51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="M41:V41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="M39:V39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="M38:V38"/>
-    <mergeCell ref="M31:V31"/>
-    <mergeCell ref="M32:V32"/>
-    <mergeCell ref="M33:V36"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="B4:K28"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K36"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:K50"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="B62:K65"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="Q112:T112"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="Q113:T113"/>
+    <mergeCell ref="U113:V113"/>
+    <mergeCell ref="M109:V109"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="O110:T110"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="M111:V111"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="Q114:T114"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="M117:V117"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="Q115:T115"/>
+    <mergeCell ref="U115:V115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:T116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:T125"/>
+    <mergeCell ref="U125:V125"/>
+    <mergeCell ref="M126:V126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="Q127:T127"/>
+    <mergeCell ref="U127:V127"/>
+    <mergeCell ref="M118:V121"/>
+    <mergeCell ref="M122:V122"/>
+    <mergeCell ref="M123:V123"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="O124:T124"/>
+    <mergeCell ref="U124:V124"/>
+    <mergeCell ref="M130:V130"/>
+    <mergeCell ref="M131:V134"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="Q128:T128"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="Q129:T129"/>
+    <mergeCell ref="U129:V129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
